--- a/AAII_Financials/Yearly/ITCL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ITCL_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3941300</v>
+        <v>3659800</v>
       </c>
       <c r="E8" s="3">
-        <v>2066500</v>
+        <v>1918900</v>
       </c>
       <c r="F8" s="3">
-        <v>1914400</v>
+        <v>1777700</v>
       </c>
       <c r="G8" s="3">
-        <v>2167100</v>
+        <v>2012300</v>
       </c>
       <c r="H8" s="3">
-        <v>2140300</v>
+        <v>1987400</v>
       </c>
       <c r="I8" s="3">
-        <v>2046300</v>
+        <v>1900200</v>
       </c>
       <c r="J8" s="3">
-        <v>1879300</v>
+        <v>1745000</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -886,25 +886,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-121200</v>
+        <v>-112500</v>
       </c>
       <c r="E15" s="3">
-        <v>-128000</v>
+        <v>-118900</v>
       </c>
       <c r="F15" s="3">
-        <v>-159300</v>
+        <v>-147900</v>
       </c>
       <c r="G15" s="3">
-        <v>-160200</v>
+        <v>-148800</v>
       </c>
       <c r="H15" s="3">
-        <v>-109400</v>
+        <v>-101600</v>
       </c>
       <c r="I15" s="3">
-        <v>-103100</v>
+        <v>-95800</v>
       </c>
       <c r="J15" s="3">
-        <v>-40600</v>
+        <v>-37700</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2827700</v>
+        <v>2625700</v>
       </c>
       <c r="E17" s="3">
-        <v>1215100</v>
+        <v>1128300</v>
       </c>
       <c r="F17" s="3">
-        <v>1526700</v>
+        <v>1417700</v>
       </c>
       <c r="G17" s="3">
-        <v>1506900</v>
+        <v>1399200</v>
       </c>
       <c r="H17" s="3">
-        <v>1378600</v>
+        <v>1280100</v>
       </c>
       <c r="I17" s="3">
-        <v>1515100</v>
+        <v>1406900</v>
       </c>
       <c r="J17" s="3">
-        <v>1412700</v>
+        <v>1311800</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1113600</v>
+        <v>1034000</v>
       </c>
       <c r="E18" s="3">
-        <v>851400</v>
+        <v>790600</v>
       </c>
       <c r="F18" s="3">
-        <v>387700</v>
+        <v>360000</v>
       </c>
       <c r="G18" s="3">
-        <v>660300</v>
+        <v>613100</v>
       </c>
       <c r="H18" s="3">
-        <v>761700</v>
+        <v>707300</v>
       </c>
       <c r="I18" s="3">
-        <v>531200</v>
+        <v>493300</v>
       </c>
       <c r="J18" s="3">
-        <v>466600</v>
+        <v>433300</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-606700</v>
+        <v>-563400</v>
       </c>
       <c r="E20" s="3">
-        <v>-355000</v>
+        <v>-329700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1747600</v>
+        <v>-1622800</v>
       </c>
       <c r="G20" s="3">
-        <v>-434400</v>
+        <v>-403400</v>
       </c>
       <c r="H20" s="3">
-        <v>-440700</v>
+        <v>-409200</v>
       </c>
       <c r="I20" s="3">
-        <v>-547100</v>
+        <v>-508000</v>
       </c>
       <c r="J20" s="3">
-        <v>-487800</v>
+        <v>-453000</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>628100</v>
+        <v>583200</v>
       </c>
       <c r="E21" s="3">
-        <v>694600</v>
+        <v>645000</v>
       </c>
       <c r="F21" s="3">
-        <v>-1200600</v>
+        <v>-1114800</v>
       </c>
       <c r="G21" s="3">
-        <v>386100</v>
+        <v>358500</v>
       </c>
       <c r="H21" s="3">
-        <v>430400</v>
+        <v>399600</v>
       </c>
       <c r="I21" s="3">
-        <v>87300</v>
+        <v>81000</v>
       </c>
       <c r="J21" s="3">
-        <v>59000</v>
+        <v>54800</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>506900</v>
+        <v>470700</v>
       </c>
       <c r="E23" s="3">
-        <v>496300</v>
+        <v>460900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1359900</v>
+        <v>-1262800</v>
       </c>
       <c r="G23" s="3">
-        <v>225900</v>
+        <v>209700</v>
       </c>
       <c r="H23" s="3">
-        <v>321000</v>
+        <v>298000</v>
       </c>
       <c r="I23" s="3">
-        <v>-15900</v>
+        <v>-14700</v>
       </c>
       <c r="J23" s="3">
-        <v>-21200</v>
+        <v>-19700</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-39700</v>
+        <v>-36900</v>
       </c>
       <c r="E24" s="3">
-        <v>142600</v>
+        <v>132400</v>
       </c>
       <c r="F24" s="3">
-        <v>-177200</v>
+        <v>-164600</v>
       </c>
       <c r="G24" s="3">
-        <v>58900</v>
+        <v>54700</v>
       </c>
       <c r="H24" s="3">
-        <v>98100</v>
+        <v>91100</v>
       </c>
       <c r="I24" s="3">
-        <v>-83000</v>
+        <v>-77100</v>
       </c>
       <c r="J24" s="3">
-        <v>-18200</v>
+        <v>-16900</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>546600</v>
+        <v>507500</v>
       </c>
       <c r="E26" s="3">
-        <v>353800</v>
+        <v>328500</v>
       </c>
       <c r="F26" s="3">
-        <v>-1182700</v>
+        <v>-1098200</v>
       </c>
       <c r="G26" s="3">
-        <v>166900</v>
+        <v>155000</v>
       </c>
       <c r="H26" s="3">
-        <v>222800</v>
+        <v>206900</v>
       </c>
       <c r="I26" s="3">
-        <v>67200</v>
+        <v>62400</v>
       </c>
       <c r="J26" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>546500</v>
+        <v>507500</v>
       </c>
       <c r="E27" s="3">
-        <v>352500</v>
+        <v>327300</v>
       </c>
       <c r="F27" s="3">
-        <v>-1166100</v>
+        <v>-1082800</v>
       </c>
       <c r="G27" s="3">
-        <v>160100</v>
+        <v>148700</v>
       </c>
       <c r="H27" s="3">
-        <v>216800</v>
+        <v>201300</v>
       </c>
       <c r="I27" s="3">
-        <v>72400</v>
+        <v>67200</v>
       </c>
       <c r="J27" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>606700</v>
+        <v>563400</v>
       </c>
       <c r="E32" s="3">
-        <v>355000</v>
+        <v>329700</v>
       </c>
       <c r="F32" s="3">
-        <v>1747600</v>
+        <v>1622800</v>
       </c>
       <c r="G32" s="3">
-        <v>434400</v>
+        <v>403400</v>
       </c>
       <c r="H32" s="3">
-        <v>440700</v>
+        <v>409200</v>
       </c>
       <c r="I32" s="3">
-        <v>547100</v>
+        <v>508000</v>
       </c>
       <c r="J32" s="3">
-        <v>487800</v>
+        <v>453000</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>546500</v>
+        <v>507500</v>
       </c>
       <c r="E33" s="3">
-        <v>352500</v>
+        <v>327300</v>
       </c>
       <c r="F33" s="3">
-        <v>-1166100</v>
+        <v>-1082800</v>
       </c>
       <c r="G33" s="3">
-        <v>160100</v>
+        <v>148700</v>
       </c>
       <c r="H33" s="3">
-        <v>216800</v>
+        <v>201300</v>
       </c>
       <c r="I33" s="3">
-        <v>72400</v>
+        <v>67200</v>
       </c>
       <c r="J33" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>546500</v>
+        <v>507500</v>
       </c>
       <c r="E35" s="3">
-        <v>352500</v>
+        <v>327300</v>
       </c>
       <c r="F35" s="3">
-        <v>-1166100</v>
+        <v>-1082800</v>
       </c>
       <c r="G35" s="3">
-        <v>160100</v>
+        <v>148700</v>
       </c>
       <c r="H35" s="3">
-        <v>216800</v>
+        <v>201300</v>
       </c>
       <c r="I35" s="3">
-        <v>72400</v>
+        <v>67200</v>
       </c>
       <c r="J35" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3892400</v>
+        <v>3614400</v>
       </c>
       <c r="E41" s="3">
-        <v>2503700</v>
+        <v>2324900</v>
       </c>
       <c r="F41" s="3">
-        <v>1892400</v>
+        <v>1757300</v>
       </c>
       <c r="G41" s="3">
-        <v>812800</v>
+        <v>754700</v>
       </c>
       <c r="H41" s="3">
-        <v>1242100</v>
+        <v>1153400</v>
       </c>
       <c r="I41" s="3">
-        <v>674200</v>
+        <v>626100</v>
       </c>
       <c r="J41" s="3">
-        <v>980800</v>
+        <v>910700</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1539400</v>
+        <v>1429400</v>
       </c>
       <c r="E42" s="3">
-        <v>8332900</v>
+        <v>7737700</v>
       </c>
       <c r="F42" s="3">
-        <v>8109600</v>
+        <v>7530400</v>
       </c>
       <c r="G42" s="3">
-        <v>5121200</v>
+        <v>4755400</v>
       </c>
       <c r="H42" s="3">
-        <v>2806200</v>
+        <v>2605800</v>
       </c>
       <c r="I42" s="3">
-        <v>2959000</v>
+        <v>2747600</v>
       </c>
       <c r="J42" s="3">
-        <v>3667400</v>
+        <v>3405500</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28200</v>
+        <v>26200</v>
       </c>
       <c r="E47" s="3">
-        <v>24700</v>
+        <v>22900</v>
       </c>
       <c r="F47" s="3">
-        <v>15100</v>
+        <v>14000</v>
       </c>
       <c r="G47" s="3">
-        <v>18800</v>
+        <v>17500</v>
       </c>
       <c r="H47" s="3">
-        <v>13300</v>
+        <v>12300</v>
       </c>
       <c r="I47" s="3">
-        <v>13100</v>
+        <v>12200</v>
       </c>
       <c r="J47" s="3">
-        <v>25200</v>
+        <v>23400</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>191900</v>
+        <v>178200</v>
       </c>
       <c r="E48" s="3">
-        <v>258000</v>
+        <v>239500</v>
       </c>
       <c r="F48" s="3">
-        <v>285500</v>
+        <v>265100</v>
       </c>
       <c r="G48" s="3">
-        <v>330800</v>
+        <v>307100</v>
       </c>
       <c r="H48" s="3">
-        <v>120400</v>
+        <v>111800</v>
       </c>
       <c r="I48" s="3">
-        <v>164500</v>
+        <v>152800</v>
       </c>
       <c r="J48" s="3">
-        <v>152500</v>
+        <v>141600</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>874200</v>
+        <v>811700</v>
       </c>
       <c r="E49" s="3">
-        <v>881200</v>
+        <v>818200</v>
       </c>
       <c r="F49" s="3">
-        <v>905500</v>
+        <v>840900</v>
       </c>
       <c r="G49" s="3">
-        <v>2038400</v>
+        <v>1892800</v>
       </c>
       <c r="H49" s="3">
-        <v>2033400</v>
+        <v>1888200</v>
       </c>
       <c r="I49" s="3">
-        <v>2022600</v>
+        <v>1878100</v>
       </c>
       <c r="J49" s="3">
-        <v>2088600</v>
+        <v>1939400</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>358900</v>
+        <v>333200</v>
       </c>
       <c r="E52" s="3">
-        <v>364400</v>
+        <v>338400</v>
       </c>
       <c r="F52" s="3">
-        <v>395800</v>
+        <v>367500</v>
       </c>
       <c r="G52" s="3">
-        <v>232100</v>
+        <v>215500</v>
       </c>
       <c r="H52" s="3">
-        <v>194800</v>
+        <v>180900</v>
       </c>
       <c r="I52" s="3">
-        <v>203000</v>
+        <v>188500</v>
       </c>
       <c r="J52" s="3">
-        <v>361700</v>
+        <v>335800</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51035400</v>
+        <v>47390000</v>
       </c>
       <c r="E54" s="3">
-        <v>47699500</v>
+        <v>44292400</v>
       </c>
       <c r="F54" s="3">
-        <v>44904700</v>
+        <v>41697200</v>
       </c>
       <c r="G54" s="3">
-        <v>42512900</v>
+        <v>39476200</v>
       </c>
       <c r="H54" s="3">
-        <v>37114100</v>
+        <v>34463100</v>
       </c>
       <c r="I54" s="3">
-        <v>35356500</v>
+        <v>32831000</v>
       </c>
       <c r="J54" s="3">
-        <v>36673800</v>
+        <v>34054200</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1086300</v>
+        <v>1008700</v>
       </c>
       <c r="E57" s="3">
-        <v>1060600</v>
+        <v>984800</v>
       </c>
       <c r="F57" s="3">
-        <v>585800</v>
+        <v>544000</v>
       </c>
       <c r="G57" s="3">
-        <v>689000</v>
+        <v>639800</v>
       </c>
       <c r="H57" s="3">
-        <v>711700</v>
+        <v>660900</v>
       </c>
       <c r="I57" s="3">
-        <v>576500</v>
+        <v>535300</v>
       </c>
       <c r="J57" s="3">
-        <v>324500</v>
+        <v>301300</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1327600</v>
+        <v>1232800</v>
       </c>
       <c r="E58" s="3">
-        <v>1319000</v>
+        <v>1224800</v>
       </c>
       <c r="F58" s="3">
-        <v>1235100</v>
+        <v>1146900</v>
       </c>
       <c r="G58" s="3">
-        <v>1760000</v>
+        <v>1634300</v>
       </c>
       <c r="H58" s="3">
-        <v>2170200</v>
+        <v>2015200</v>
       </c>
       <c r="I58" s="3">
-        <v>1381700</v>
+        <v>1283000</v>
       </c>
       <c r="J58" s="3">
-        <v>2625600</v>
+        <v>2438100</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>164300</v>
+        <v>152600</v>
       </c>
       <c r="E59" s="3">
-        <v>107000</v>
+        <v>99400</v>
       </c>
       <c r="F59" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15485500</v>
+        <v>14379400</v>
       </c>
       <c r="E61" s="3">
-        <v>14185600</v>
+        <v>13172300</v>
       </c>
       <c r="F61" s="3">
-        <v>12382600</v>
+        <v>11498100</v>
       </c>
       <c r="G61" s="3">
-        <v>10588500</v>
+        <v>9832200</v>
       </c>
       <c r="H61" s="3">
-        <v>9630800</v>
+        <v>8942900</v>
       </c>
       <c r="I61" s="3">
-        <v>9434300</v>
+        <v>8760400</v>
       </c>
       <c r="J61" s="3">
-        <v>7504300</v>
+        <v>6968200</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>460700</v>
+        <v>427800</v>
       </c>
       <c r="E62" s="3">
-        <v>411900</v>
+        <v>382500</v>
       </c>
       <c r="F62" s="3">
-        <v>356000</v>
+        <v>330500</v>
       </c>
       <c r="G62" s="3">
-        <v>244900</v>
+        <v>227400</v>
       </c>
       <c r="H62" s="3">
-        <v>299400</v>
+        <v>278000</v>
       </c>
       <c r="I62" s="3">
-        <v>253400</v>
+        <v>235300</v>
       </c>
       <c r="J62" s="3">
-        <v>473500</v>
+        <v>439700</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>46852100</v>
+        <v>43505500</v>
       </c>
       <c r="E66" s="3">
-        <v>43465900</v>
+        <v>40361200</v>
       </c>
       <c r="F66" s="3">
-        <v>41987300</v>
+        <v>38988200</v>
       </c>
       <c r="G66" s="3">
-        <v>38296800</v>
+        <v>35561300</v>
       </c>
       <c r="H66" s="3">
-        <v>32925200</v>
+        <v>30573400</v>
       </c>
       <c r="I66" s="3">
-        <v>31337300</v>
+        <v>29098900</v>
       </c>
       <c r="J66" s="3">
-        <v>32675200</v>
+        <v>30341200</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>925000</v>
+        <v>858900</v>
       </c>
       <c r="E72" s="3">
-        <v>844100</v>
+        <v>783800</v>
       </c>
       <c r="F72" s="3">
-        <v>537700</v>
+        <v>499300</v>
       </c>
       <c r="G72" s="3">
-        <v>1815800</v>
+        <v>1686100</v>
       </c>
       <c r="H72" s="3">
-        <v>1822600</v>
+        <v>1692400</v>
       </c>
       <c r="I72" s="3">
-        <v>1587500</v>
+        <v>1474100</v>
       </c>
       <c r="J72" s="3">
-        <v>1626900</v>
+        <v>1510700</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4183300</v>
+        <v>3884500</v>
       </c>
       <c r="E76" s="3">
-        <v>4233500</v>
+        <v>3931100</v>
       </c>
       <c r="F76" s="3">
-        <v>2917400</v>
+        <v>2709000</v>
       </c>
       <c r="G76" s="3">
-        <v>4216100</v>
+        <v>3914900</v>
       </c>
       <c r="H76" s="3">
-        <v>4188900</v>
+        <v>3889700</v>
       </c>
       <c r="I76" s="3">
-        <v>4019200</v>
+        <v>3732200</v>
       </c>
       <c r="J76" s="3">
-        <v>3998600</v>
+        <v>3713000</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>546500</v>
+        <v>507500</v>
       </c>
       <c r="E81" s="3">
-        <v>352500</v>
+        <v>327300</v>
       </c>
       <c r="F81" s="3">
-        <v>-1166100</v>
+        <v>-1082800</v>
       </c>
       <c r="G81" s="3">
-        <v>160100</v>
+        <v>148700</v>
       </c>
       <c r="H81" s="3">
-        <v>216800</v>
+        <v>201300</v>
       </c>
       <c r="I81" s="3">
-        <v>72400</v>
+        <v>67200</v>
       </c>
       <c r="J81" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>121200</v>
+        <v>112500</v>
       </c>
       <c r="E83" s="3">
-        <v>198300</v>
+        <v>184100</v>
       </c>
       <c r="F83" s="3">
-        <v>159300</v>
+        <v>147900</v>
       </c>
       <c r="G83" s="3">
-        <v>160200</v>
+        <v>148800</v>
       </c>
       <c r="H83" s="3">
-        <v>109400</v>
+        <v>101600</v>
       </c>
       <c r="I83" s="3">
-        <v>103100</v>
+        <v>95800</v>
       </c>
       <c r="J83" s="3">
-        <v>80300</v>
+        <v>74500</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-515100</v>
+        <v>-478400</v>
       </c>
       <c r="E89" s="3">
-        <v>-554000</v>
+        <v>-514400</v>
       </c>
       <c r="F89" s="3">
-        <v>1804500</v>
+        <v>1675600</v>
       </c>
       <c r="G89" s="3">
-        <v>444400</v>
+        <v>412600</v>
       </c>
       <c r="H89" s="3">
-        <v>876600</v>
+        <v>814000</v>
       </c>
       <c r="I89" s="3">
-        <v>-1752500</v>
+        <v>-1627300</v>
       </c>
       <c r="J89" s="3">
-        <v>-1232900</v>
+        <v>-1144800</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9900</v>
+        <v>-9200</v>
       </c>
       <c r="E91" s="3">
-        <v>-58200</v>
+        <v>-54000</v>
       </c>
       <c r="F91" s="3">
-        <v>-85300</v>
+        <v>-79200</v>
       </c>
       <c r="G91" s="3">
-        <v>-82800</v>
+        <v>-76900</v>
       </c>
       <c r="H91" s="3">
-        <v>-104500</v>
+        <v>-97100</v>
       </c>
       <c r="I91" s="3">
-        <v>-109800</v>
+        <v>-102000</v>
       </c>
       <c r="J91" s="3">
-        <v>-132500</v>
+        <v>-123000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-506000</v>
+        <v>-469900</v>
       </c>
       <c r="E94" s="3">
-        <v>-57600</v>
+        <v>-53500</v>
       </c>
       <c r="F94" s="3">
-        <v>-82800</v>
+        <v>-76900</v>
       </c>
       <c r="G94" s="3">
-        <v>-395400</v>
+        <v>-367200</v>
       </c>
       <c r="H94" s="3">
-        <v>-52700</v>
+        <v>-48900</v>
       </c>
       <c r="I94" s="3">
-        <v>-109900</v>
+        <v>-102000</v>
       </c>
       <c r="J94" s="3">
-        <v>2001700</v>
+        <v>1858700</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-105000</v>
+        <v>-97500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-160100</v>
+        <v>-148700</v>
       </c>
       <c r="G96" s="3">
-        <v>-64700</v>
+        <v>-60100</v>
       </c>
       <c r="H96" s="3">
-        <v>-29000</v>
+        <v>-26900</v>
       </c>
       <c r="I96" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J96" s="3">
-        <v>-65700</v>
+        <v>-61000</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>169100</v>
+        <v>157000</v>
       </c>
       <c r="E100" s="3">
-        <v>1340200</v>
+        <v>1244500</v>
       </c>
       <c r="F100" s="3">
-        <v>1977900</v>
+        <v>1836600</v>
       </c>
       <c r="G100" s="3">
-        <v>-88100</v>
+        <v>-81800</v>
       </c>
       <c r="H100" s="3">
-        <v>-566100</v>
+        <v>-525600</v>
       </c>
       <c r="I100" s="3">
-        <v>440500</v>
+        <v>409000</v>
       </c>
       <c r="J100" s="3">
-        <v>1102200</v>
+        <v>1023500</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>596400</v>
+        <v>553800</v>
       </c>
       <c r="E101" s="3">
-        <v>365000</v>
+        <v>338900</v>
       </c>
       <c r="F101" s="3">
-        <v>153900</v>
+        <v>142900</v>
       </c>
       <c r="G101" s="3">
-        <v>146100</v>
+        <v>135600</v>
       </c>
       <c r="H101" s="3">
-        <v>105000</v>
+        <v>97500</v>
       </c>
       <c r="I101" s="3">
-        <v>109300</v>
+        <v>101500</v>
       </c>
       <c r="J101" s="3">
-        <v>7800</v>
+        <v>7200</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-255600</v>
+        <v>-237400</v>
       </c>
       <c r="E102" s="3">
-        <v>1093600</v>
+        <v>1015500</v>
       </c>
       <c r="F102" s="3">
-        <v>3853500</v>
+        <v>3578200</v>
       </c>
       <c r="G102" s="3">
-        <v>107000</v>
+        <v>99300</v>
       </c>
       <c r="H102" s="3">
-        <v>362800</v>
+        <v>336900</v>
       </c>
       <c r="I102" s="3">
-        <v>-1312500</v>
+        <v>-1218700</v>
       </c>
       <c r="J102" s="3">
-        <v>1878800</v>
+        <v>1744600</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/ITCL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ITCL_YR_FIN.xlsx
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3659800</v>
+        <v>3534700</v>
       </c>
       <c r="E8" s="3">
-        <v>1918900</v>
+        <v>1853200</v>
       </c>
       <c r="F8" s="3">
-        <v>1777700</v>
+        <v>1716900</v>
       </c>
       <c r="G8" s="3">
-        <v>2012300</v>
+        <v>1943500</v>
       </c>
       <c r="H8" s="3">
-        <v>1987400</v>
+        <v>1919500</v>
       </c>
       <c r="I8" s="3">
-        <v>1900200</v>
+        <v>1835200</v>
       </c>
       <c r="J8" s="3">
-        <v>1745000</v>
+        <v>1685400</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -886,25 +886,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-112500</v>
+        <v>-108700</v>
       </c>
       <c r="E15" s="3">
-        <v>-118900</v>
+        <v>-114800</v>
       </c>
       <c r="F15" s="3">
-        <v>-147900</v>
+        <v>-142900</v>
       </c>
       <c r="G15" s="3">
-        <v>-148800</v>
+        <v>-143700</v>
       </c>
       <c r="H15" s="3">
-        <v>-101600</v>
+        <v>-98100</v>
       </c>
       <c r="I15" s="3">
-        <v>-95800</v>
+        <v>-92500</v>
       </c>
       <c r="J15" s="3">
-        <v>-37700</v>
+        <v>-36500</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2625700</v>
+        <v>2536000</v>
       </c>
       <c r="E17" s="3">
-        <v>1128300</v>
+        <v>1089700</v>
       </c>
       <c r="F17" s="3">
-        <v>1417700</v>
+        <v>1369200</v>
       </c>
       <c r="G17" s="3">
-        <v>1399200</v>
+        <v>1351400</v>
       </c>
       <c r="H17" s="3">
-        <v>1280100</v>
+        <v>1236400</v>
       </c>
       <c r="I17" s="3">
-        <v>1406900</v>
+        <v>1358800</v>
       </c>
       <c r="J17" s="3">
-        <v>1311800</v>
+        <v>1266900</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1034000</v>
+        <v>998700</v>
       </c>
       <c r="E18" s="3">
-        <v>790600</v>
+        <v>763500</v>
       </c>
       <c r="F18" s="3">
-        <v>360000</v>
+        <v>347700</v>
       </c>
       <c r="G18" s="3">
-        <v>613100</v>
+        <v>592100</v>
       </c>
       <c r="H18" s="3">
-        <v>707300</v>
+        <v>683100</v>
       </c>
       <c r="I18" s="3">
-        <v>493300</v>
+        <v>476400</v>
       </c>
       <c r="J18" s="3">
-        <v>433300</v>
+        <v>418500</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-563400</v>
+        <v>-544100</v>
       </c>
       <c r="E20" s="3">
-        <v>-329700</v>
+        <v>-318400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1622800</v>
+        <v>-1567300</v>
       </c>
       <c r="G20" s="3">
-        <v>-403400</v>
+        <v>-389600</v>
       </c>
       <c r="H20" s="3">
-        <v>-409200</v>
+        <v>-395200</v>
       </c>
       <c r="I20" s="3">
-        <v>-508000</v>
+        <v>-490700</v>
       </c>
       <c r="J20" s="3">
-        <v>-453000</v>
+        <v>-437500</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>583200</v>
+        <v>563300</v>
       </c>
       <c r="E21" s="3">
-        <v>645000</v>
+        <v>623000</v>
       </c>
       <c r="F21" s="3">
-        <v>-1114800</v>
+        <v>-1076700</v>
       </c>
       <c r="G21" s="3">
-        <v>358500</v>
+        <v>346200</v>
       </c>
       <c r="H21" s="3">
-        <v>399600</v>
+        <v>386000</v>
       </c>
       <c r="I21" s="3">
-        <v>81000</v>
+        <v>78300</v>
       </c>
       <c r="J21" s="3">
-        <v>54800</v>
+        <v>52900</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>470700</v>
+        <v>454600</v>
       </c>
       <c r="E23" s="3">
-        <v>460900</v>
+        <v>445100</v>
       </c>
       <c r="F23" s="3">
-        <v>-1262800</v>
+        <v>-1219600</v>
       </c>
       <c r="G23" s="3">
-        <v>209700</v>
+        <v>202600</v>
       </c>
       <c r="H23" s="3">
-        <v>298000</v>
+        <v>287900</v>
       </c>
       <c r="I23" s="3">
-        <v>-14700</v>
+        <v>-14200</v>
       </c>
       <c r="J23" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-36900</v>
+        <v>-35600</v>
       </c>
       <c r="E24" s="3">
-        <v>132400</v>
+        <v>127900</v>
       </c>
       <c r="F24" s="3">
-        <v>-164600</v>
+        <v>-158900</v>
       </c>
       <c r="G24" s="3">
-        <v>54700</v>
+        <v>52900</v>
       </c>
       <c r="H24" s="3">
-        <v>91100</v>
+        <v>88000</v>
       </c>
       <c r="I24" s="3">
-        <v>-77100</v>
+        <v>-74500</v>
       </c>
       <c r="J24" s="3">
-        <v>-16900</v>
+        <v>-16300</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>507500</v>
+        <v>490200</v>
       </c>
       <c r="E26" s="3">
-        <v>328500</v>
+        <v>317300</v>
       </c>
       <c r="F26" s="3">
-        <v>-1098200</v>
+        <v>-1060600</v>
       </c>
       <c r="G26" s="3">
-        <v>155000</v>
+        <v>149700</v>
       </c>
       <c r="H26" s="3">
-        <v>206900</v>
+        <v>199800</v>
       </c>
       <c r="I26" s="3">
-        <v>62400</v>
+        <v>60200</v>
       </c>
       <c r="J26" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>507500</v>
+        <v>490100</v>
       </c>
       <c r="E27" s="3">
-        <v>327300</v>
+        <v>316100</v>
       </c>
       <c r="F27" s="3">
-        <v>-1082800</v>
+        <v>-1045800</v>
       </c>
       <c r="G27" s="3">
-        <v>148700</v>
+        <v>143600</v>
       </c>
       <c r="H27" s="3">
-        <v>201300</v>
+        <v>194400</v>
       </c>
       <c r="I27" s="3">
-        <v>67200</v>
+        <v>64900</v>
       </c>
       <c r="J27" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>563400</v>
+        <v>544100</v>
       </c>
       <c r="E32" s="3">
-        <v>329700</v>
+        <v>318400</v>
       </c>
       <c r="F32" s="3">
-        <v>1622800</v>
+        <v>1567300</v>
       </c>
       <c r="G32" s="3">
-        <v>403400</v>
+        <v>389600</v>
       </c>
       <c r="H32" s="3">
-        <v>409200</v>
+        <v>395200</v>
       </c>
       <c r="I32" s="3">
-        <v>508000</v>
+        <v>490700</v>
       </c>
       <c r="J32" s="3">
-        <v>453000</v>
+        <v>437500</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>507500</v>
+        <v>490100</v>
       </c>
       <c r="E33" s="3">
-        <v>327300</v>
+        <v>316100</v>
       </c>
       <c r="F33" s="3">
-        <v>-1082800</v>
+        <v>-1045800</v>
       </c>
       <c r="G33" s="3">
-        <v>148700</v>
+        <v>143600</v>
       </c>
       <c r="H33" s="3">
-        <v>201300</v>
+        <v>194400</v>
       </c>
       <c r="I33" s="3">
-        <v>67200</v>
+        <v>64900</v>
       </c>
       <c r="J33" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>507500</v>
+        <v>490100</v>
       </c>
       <c r="E35" s="3">
-        <v>327300</v>
+        <v>316100</v>
       </c>
       <c r="F35" s="3">
-        <v>-1082800</v>
+        <v>-1045800</v>
       </c>
       <c r="G35" s="3">
-        <v>148700</v>
+        <v>143600</v>
       </c>
       <c r="H35" s="3">
-        <v>201300</v>
+        <v>194400</v>
       </c>
       <c r="I35" s="3">
-        <v>67200</v>
+        <v>64900</v>
       </c>
       <c r="J35" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3614400</v>
+        <v>3490800</v>
       </c>
       <c r="E41" s="3">
-        <v>2324900</v>
+        <v>2245400</v>
       </c>
       <c r="F41" s="3">
-        <v>1757300</v>
+        <v>1697200</v>
       </c>
       <c r="G41" s="3">
-        <v>754700</v>
+        <v>728900</v>
       </c>
       <c r="H41" s="3">
-        <v>1153400</v>
+        <v>1113900</v>
       </c>
       <c r="I41" s="3">
-        <v>626100</v>
+        <v>604700</v>
       </c>
       <c r="J41" s="3">
-        <v>910700</v>
+        <v>879600</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1429400</v>
+        <v>1380500</v>
       </c>
       <c r="E42" s="3">
-        <v>7737700</v>
+        <v>7473100</v>
       </c>
       <c r="F42" s="3">
-        <v>7530400</v>
+        <v>7272900</v>
       </c>
       <c r="G42" s="3">
-        <v>4755400</v>
+        <v>4592900</v>
       </c>
       <c r="H42" s="3">
-        <v>2605800</v>
+        <v>2516700</v>
       </c>
       <c r="I42" s="3">
-        <v>2747600</v>
+        <v>2653700</v>
       </c>
       <c r="J42" s="3">
-        <v>3405500</v>
+        <v>3289000</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26200</v>
+        <v>25300</v>
       </c>
       <c r="E47" s="3">
-        <v>22900</v>
+        <v>22100</v>
       </c>
       <c r="F47" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="G47" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="H47" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="I47" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="J47" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>178200</v>
+        <v>172100</v>
       </c>
       <c r="E48" s="3">
-        <v>239500</v>
+        <v>231300</v>
       </c>
       <c r="F48" s="3">
-        <v>265100</v>
+        <v>256100</v>
       </c>
       <c r="G48" s="3">
-        <v>307100</v>
+        <v>296600</v>
       </c>
       <c r="H48" s="3">
-        <v>111800</v>
+        <v>108000</v>
       </c>
       <c r="I48" s="3">
-        <v>152800</v>
+        <v>147600</v>
       </c>
       <c r="J48" s="3">
-        <v>141600</v>
+        <v>136800</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>811700</v>
+        <v>784000</v>
       </c>
       <c r="E49" s="3">
-        <v>818200</v>
+        <v>790300</v>
       </c>
       <c r="F49" s="3">
-        <v>840900</v>
+        <v>812100</v>
       </c>
       <c r="G49" s="3">
-        <v>1892800</v>
+        <v>1828100</v>
       </c>
       <c r="H49" s="3">
-        <v>1888200</v>
+        <v>1823600</v>
       </c>
       <c r="I49" s="3">
-        <v>1878100</v>
+        <v>1813900</v>
       </c>
       <c r="J49" s="3">
-        <v>1939400</v>
+        <v>1873100</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>333200</v>
+        <v>321800</v>
       </c>
       <c r="E52" s="3">
-        <v>338400</v>
+        <v>326800</v>
       </c>
       <c r="F52" s="3">
-        <v>367500</v>
+        <v>354900</v>
       </c>
       <c r="G52" s="3">
-        <v>215500</v>
+        <v>208100</v>
       </c>
       <c r="H52" s="3">
-        <v>180900</v>
+        <v>174700</v>
       </c>
       <c r="I52" s="3">
-        <v>188500</v>
+        <v>182100</v>
       </c>
       <c r="J52" s="3">
-        <v>335800</v>
+        <v>324400</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47390000</v>
+        <v>45769900</v>
       </c>
       <c r="E54" s="3">
-        <v>44292400</v>
+        <v>42778100</v>
       </c>
       <c r="F54" s="3">
-        <v>41697200</v>
+        <v>40271700</v>
       </c>
       <c r="G54" s="3">
-        <v>39476200</v>
+        <v>38126600</v>
       </c>
       <c r="H54" s="3">
-        <v>34463100</v>
+        <v>33284900</v>
       </c>
       <c r="I54" s="3">
-        <v>32831000</v>
+        <v>31708600</v>
       </c>
       <c r="J54" s="3">
-        <v>34054200</v>
+        <v>32890000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1008700</v>
+        <v>974200</v>
       </c>
       <c r="E57" s="3">
-        <v>984800</v>
+        <v>951200</v>
       </c>
       <c r="F57" s="3">
-        <v>544000</v>
+        <v>525400</v>
       </c>
       <c r="G57" s="3">
-        <v>639800</v>
+        <v>617900</v>
       </c>
       <c r="H57" s="3">
-        <v>660900</v>
+        <v>638300</v>
       </c>
       <c r="I57" s="3">
-        <v>535300</v>
+        <v>517000</v>
       </c>
       <c r="J57" s="3">
-        <v>301300</v>
+        <v>291000</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1232800</v>
+        <v>1190600</v>
       </c>
       <c r="E58" s="3">
-        <v>1224800</v>
+        <v>1183000</v>
       </c>
       <c r="F58" s="3">
-        <v>1146900</v>
+        <v>1107700</v>
       </c>
       <c r="G58" s="3">
-        <v>1634300</v>
+        <v>1578400</v>
       </c>
       <c r="H58" s="3">
-        <v>2015200</v>
+        <v>1946300</v>
       </c>
       <c r="I58" s="3">
-        <v>1283000</v>
+        <v>1239200</v>
       </c>
       <c r="J58" s="3">
-        <v>2438100</v>
+        <v>2354700</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,13 +1938,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>152600</v>
+        <v>147400</v>
       </c>
       <c r="E59" s="3">
-        <v>99400</v>
+        <v>96000</v>
       </c>
       <c r="F59" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -1953,7 +1953,7 @@
         <v>1700</v>
       </c>
       <c r="I59" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14379400</v>
+        <v>13887800</v>
       </c>
       <c r="E61" s="3">
-        <v>13172300</v>
+        <v>12722000</v>
       </c>
       <c r="F61" s="3">
-        <v>11498100</v>
+        <v>11105000</v>
       </c>
       <c r="G61" s="3">
-        <v>9832200</v>
+        <v>9496100</v>
       </c>
       <c r="H61" s="3">
-        <v>8942900</v>
+        <v>8637100</v>
       </c>
       <c r="I61" s="3">
-        <v>8760400</v>
+        <v>8460900</v>
       </c>
       <c r="J61" s="3">
-        <v>6968200</v>
+        <v>6730000</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>427800</v>
+        <v>413100</v>
       </c>
       <c r="E62" s="3">
-        <v>382500</v>
+        <v>369400</v>
       </c>
       <c r="F62" s="3">
-        <v>330500</v>
+        <v>319200</v>
       </c>
       <c r="G62" s="3">
-        <v>227400</v>
+        <v>219600</v>
       </c>
       <c r="H62" s="3">
-        <v>278000</v>
+        <v>268500</v>
       </c>
       <c r="I62" s="3">
-        <v>235300</v>
+        <v>227300</v>
       </c>
       <c r="J62" s="3">
-        <v>439700</v>
+        <v>424700</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43505500</v>
+        <v>42018100</v>
       </c>
       <c r="E66" s="3">
-        <v>40361200</v>
+        <v>38981400</v>
       </c>
       <c r="F66" s="3">
-        <v>38988200</v>
+        <v>37655200</v>
       </c>
       <c r="G66" s="3">
-        <v>35561300</v>
+        <v>34345500</v>
       </c>
       <c r="H66" s="3">
-        <v>30573400</v>
+        <v>29528200</v>
       </c>
       <c r="I66" s="3">
-        <v>29098900</v>
+        <v>28104100</v>
       </c>
       <c r="J66" s="3">
-        <v>30341200</v>
+        <v>29303900</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>858900</v>
+        <v>829600</v>
       </c>
       <c r="E72" s="3">
-        <v>783800</v>
+        <v>757000</v>
       </c>
       <c r="F72" s="3">
-        <v>499300</v>
+        <v>482200</v>
       </c>
       <c r="G72" s="3">
-        <v>1686100</v>
+        <v>1628500</v>
       </c>
       <c r="H72" s="3">
-        <v>1692400</v>
+        <v>1634500</v>
       </c>
       <c r="I72" s="3">
-        <v>1474100</v>
+        <v>1423700</v>
       </c>
       <c r="J72" s="3">
-        <v>1510700</v>
+        <v>1459100</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3884500</v>
+        <v>3751700</v>
       </c>
       <c r="E76" s="3">
-        <v>3931100</v>
+        <v>3796700</v>
       </c>
       <c r="F76" s="3">
-        <v>2709000</v>
+        <v>2616400</v>
       </c>
       <c r="G76" s="3">
-        <v>3914900</v>
+        <v>3781100</v>
       </c>
       <c r="H76" s="3">
-        <v>3889700</v>
+        <v>3756700</v>
       </c>
       <c r="I76" s="3">
-        <v>3732200</v>
+        <v>3604600</v>
       </c>
       <c r="J76" s="3">
-        <v>3713000</v>
+        <v>3586100</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>507500</v>
+        <v>490100</v>
       </c>
       <c r="E81" s="3">
-        <v>327300</v>
+        <v>316100</v>
       </c>
       <c r="F81" s="3">
-        <v>-1082800</v>
+        <v>-1045800</v>
       </c>
       <c r="G81" s="3">
-        <v>148700</v>
+        <v>143600</v>
       </c>
       <c r="H81" s="3">
-        <v>201300</v>
+        <v>194400</v>
       </c>
       <c r="I81" s="3">
-        <v>67200</v>
+        <v>64900</v>
       </c>
       <c r="J81" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>112500</v>
+        <v>108700</v>
       </c>
       <c r="E83" s="3">
-        <v>184100</v>
+        <v>177800</v>
       </c>
       <c r="F83" s="3">
-        <v>147900</v>
+        <v>142900</v>
       </c>
       <c r="G83" s="3">
-        <v>148800</v>
+        <v>143700</v>
       </c>
       <c r="H83" s="3">
-        <v>101600</v>
+        <v>98100</v>
       </c>
       <c r="I83" s="3">
-        <v>95800</v>
+        <v>92500</v>
       </c>
       <c r="J83" s="3">
-        <v>74500</v>
+        <v>72000</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-478400</v>
+        <v>-462000</v>
       </c>
       <c r="E89" s="3">
-        <v>-514400</v>
+        <v>-496900</v>
       </c>
       <c r="F89" s="3">
-        <v>1675600</v>
+        <v>1618300</v>
       </c>
       <c r="G89" s="3">
-        <v>412600</v>
+        <v>398500</v>
       </c>
       <c r="H89" s="3">
-        <v>814000</v>
+        <v>786100</v>
       </c>
       <c r="I89" s="3">
-        <v>-1627300</v>
+        <v>-1571600</v>
       </c>
       <c r="J89" s="3">
-        <v>-1144800</v>
+        <v>-1105700</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9200</v>
+        <v>-8900</v>
       </c>
       <c r="E91" s="3">
-        <v>-54000</v>
+        <v>-52200</v>
       </c>
       <c r="F91" s="3">
-        <v>-79200</v>
+        <v>-76500</v>
       </c>
       <c r="G91" s="3">
-        <v>-76900</v>
+        <v>-74300</v>
       </c>
       <c r="H91" s="3">
-        <v>-97100</v>
+        <v>-93700</v>
       </c>
       <c r="I91" s="3">
-        <v>-102000</v>
+        <v>-98500</v>
       </c>
       <c r="J91" s="3">
-        <v>-123000</v>
+        <v>-118800</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-469900</v>
+        <v>-453800</v>
       </c>
       <c r="E94" s="3">
-        <v>-53500</v>
+        <v>-51600</v>
       </c>
       <c r="F94" s="3">
-        <v>-76900</v>
+        <v>-74200</v>
       </c>
       <c r="G94" s="3">
-        <v>-367200</v>
+        <v>-354600</v>
       </c>
       <c r="H94" s="3">
-        <v>-48900</v>
+        <v>-47200</v>
       </c>
       <c r="I94" s="3">
-        <v>-102000</v>
+        <v>-98500</v>
       </c>
       <c r="J94" s="3">
-        <v>1858700</v>
+        <v>1795200</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-97500</v>
+        <v>-94200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-148700</v>
+        <v>-143600</v>
       </c>
       <c r="G96" s="3">
-        <v>-60100</v>
+        <v>-58000</v>
       </c>
       <c r="H96" s="3">
-        <v>-26900</v>
+        <v>-26000</v>
       </c>
       <c r="I96" s="3">
         <v>-700</v>
       </c>
       <c r="J96" s="3">
-        <v>-61000</v>
+        <v>-58900</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>157000</v>
+        <v>151700</v>
       </c>
       <c r="E100" s="3">
-        <v>1244500</v>
+        <v>1201900</v>
       </c>
       <c r="F100" s="3">
-        <v>1836600</v>
+        <v>1773800</v>
       </c>
       <c r="G100" s="3">
-        <v>-81800</v>
+        <v>-79000</v>
       </c>
       <c r="H100" s="3">
-        <v>-525600</v>
+        <v>-507700</v>
       </c>
       <c r="I100" s="3">
-        <v>409000</v>
+        <v>395100</v>
       </c>
       <c r="J100" s="3">
-        <v>1023500</v>
+        <v>988500</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>553800</v>
+        <v>534900</v>
       </c>
       <c r="E101" s="3">
-        <v>338900</v>
+        <v>327300</v>
       </c>
       <c r="F101" s="3">
-        <v>142900</v>
+        <v>138000</v>
       </c>
       <c r="G101" s="3">
-        <v>135600</v>
+        <v>131000</v>
       </c>
       <c r="H101" s="3">
-        <v>97500</v>
+        <v>94200</v>
       </c>
       <c r="I101" s="3">
-        <v>101500</v>
+        <v>98000</v>
       </c>
       <c r="J101" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-237400</v>
+        <v>-229300</v>
       </c>
       <c r="E102" s="3">
-        <v>1015500</v>
+        <v>980800</v>
       </c>
       <c r="F102" s="3">
-        <v>3578200</v>
+        <v>3455900</v>
       </c>
       <c r="G102" s="3">
-        <v>99300</v>
+        <v>95900</v>
       </c>
       <c r="H102" s="3">
-        <v>336900</v>
+        <v>325400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1218700</v>
+        <v>-1177100</v>
       </c>
       <c r="J102" s="3">
-        <v>1744600</v>
+        <v>1685000</v>
       </c>
       <c r="K102" s="3"/>
     </row>
